--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19917" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59173" uniqueCount="882">
   <si>
     <t>ANSPs</t>
   </si>

--- a/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-1.xlsx
+++ b/Modello/nuovi modelli/inputTesiOriginali/test2/Soluzioni-1.xlsx
@@ -281,7 +281,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59173" uniqueCount="882">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80078" uniqueCount="882">
   <si>
     <t>ANSPs</t>
   </si>
@@ -31340,13 +31340,13 @@
         <v>50</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>88</v>
@@ -31358,10 +31358,10 @@
         <v>88</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>88</v>
@@ -31376,7 +31376,7 @@
         <v>88</v>
       </c>
       <c r="N14" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O14" s="5" t="s">
         <v>88</v>
@@ -31391,7 +31391,7 @@
         <v>88</v>
       </c>
       <c r="S14" s="5" t="s">
-        <v>481</v>
+        <v>470</v>
       </c>
       <c r="T14" s="5" t="s">
         <v>88</v>
@@ -31400,7 +31400,7 @@
         <v>88</v>
       </c>
       <c r="V14" s="5" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
       <c r="W14" s="5" t="s">
         <v>88</v>
@@ -31415,7 +31415,7 @@
         <v>88</v>
       </c>
       <c r="AA14" s="5" t="s">
-        <v>620</v>
+        <v>609</v>
       </c>
       <c r="AB14" s="5" t="s">
         <v>88</v>
@@ -31430,7 +31430,7 @@
         <v>88</v>
       </c>
       <c r="AF14" s="5" t="s">
-        <v>718</v>
+        <v>707</v>
       </c>
       <c r="AG14" s="5" t="s">
         <v>88</v>
@@ -31442,10 +31442,10 @@
         <v>88</v>
       </c>
       <c r="AJ14" s="5" t="s">
-        <v>826</v>
+        <v>815</v>
       </c>
       <c r="AK14" s="5" t="s">
-        <v>854</v>
+        <v>843</v>
       </c>
       <c r="AL14" s="5" t="s">
         <v>88</v>
@@ -32628,7 +32628,7 @@
         <v>88</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>88</v>
@@ -32637,43 +32637,43 @@
         <v>88</v>
       </c>
       <c r="I25" s="5" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="J25" s="5" t="s">
-        <v>291</v>
+        <v>280</v>
       </c>
       <c r="K25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="L25" s="5" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="M25" s="5" t="s">
-        <v>334</v>
+        <v>323</v>
       </c>
       <c r="N25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O25" s="5" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="P25" s="5" t="s">
-        <v>397</v>
+        <v>386</v>
       </c>
       <c r="Q25" s="5" t="s">
-        <v>425</v>
+        <v>414</v>
       </c>
       <c r="R25" s="5" t="s">
-        <v>453</v>
+        <v>442</v>
       </c>
       <c r="S25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="T25" s="5" t="s">
-        <v>507</v>
+        <v>496</v>
       </c>
       <c r="U25" s="5" t="s">
-        <v>535</v>
+        <v>524</v>
       </c>
       <c r="V25" s="5" t="s">
         <v>88</v>
@@ -32685,7 +32685,7 @@
         <v>88</v>
       </c>
       <c r="Y25" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z25" s="5" t="s">
         <v>88</v>
@@ -32700,19 +32700,19 @@
         <v>88</v>
       </c>
       <c r="AD25" s="5" t="s">
-        <v>663</v>
+        <v>652</v>
       </c>
       <c r="AE25" s="5" t="s">
-        <v>690</v>
+        <v>679</v>
       </c>
       <c r="AF25" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AG25" s="5" t="s">
-        <v>746</v>
+        <v>735</v>
       </c>
       <c r="AH25" s="5" t="s">
-        <v>774</v>
+        <v>763</v>
       </c>
       <c r="AI25" s="5" t="s">
         <v>88</v>
@@ -32721,10 +32721,10 @@
         <v>88</v>
       </c>
       <c r="AK25" s="5" t="s">
-        <v>855</v>
+        <v>844</v>
       </c>
       <c r="AL25" s="5" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
     </row>
     <row r="26">
@@ -32738,7 +32738,7 @@
         <v>88</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>88</v>
@@ -32792,7 +32792,7 @@
         <v>88</v>
       </c>
       <c r="V26" s="5" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="W26" s="5" t="s">
         <v>88</v>
@@ -32804,10 +32804,10 @@
         <v>88</v>
       </c>
       <c r="Z26" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AA26" s="5" t="s">
-        <v>621</v>
+        <v>610</v>
       </c>
       <c r="AB26" s="5" t="s">
         <v>88</v>
@@ -32822,7 +32822,7 @@
         <v>88</v>
       </c>
       <c r="AF26" s="5" t="s">
-        <v>719</v>
+        <v>708</v>
       </c>
       <c r="AG26" s="5" t="s">
         <v>88</v>
@@ -32964,73 +32964,73 @@
         <v>64</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="H28" s="5" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="J28" s="5" t="s">
-        <v>292</v>
+        <v>281</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="L28" s="5" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="M28" s="5" t="s">
-        <v>335</v>
+        <v>324</v>
       </c>
       <c r="N28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="O28" s="5" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="P28" s="5" t="s">
-        <v>398</v>
+        <v>387</v>
       </c>
       <c r="Q28" s="5" t="s">
-        <v>426</v>
+        <v>415</v>
       </c>
       <c r="R28" s="5" t="s">
-        <v>454</v>
+        <v>443</v>
       </c>
       <c r="S28" s="5" t="s">
-        <v>482</v>
+        <v>471</v>
       </c>
       <c r="T28" s="5" t="s">
-        <v>508</v>
+        <v>497</v>
       </c>
       <c r="U28" s="5" t="s">
-        <v>536</v>
+        <v>525</v>
       </c>
       <c r="V28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="W28" s="5" t="s">
-        <v>576</v>
+        <v>568</v>
       </c>
       <c r="X28" s="5" t="s">
-        <v>599</v>
+        <v>590</v>
       </c>
       <c r="Y28" s="5" t="s">
         <v>88</v>
@@ -33042,31 +33042,31 @@
         <v>88</v>
       </c>
       <c r="AB28" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC28" s="5" t="s">
-        <v>636</v>
+        <v>627</v>
       </c>
       <c r="AD28" s="5" t="s">
-        <v>664</v>
+        <v>653</v>
       </c>
       <c r="AE28" s="5" t="s">
-        <v>691</v>
+        <v>680</v>
       </c>
       <c r="AF28" s="5" t="s">
         <v>88</v>
       </c>
       <c r="AG28" s="5" t="s">
-        <v>747</v>
+        <v>736</v>
       </c>
       <c r="AH28" s="5" t="s">
-        <v>775</v>
+        <v>764</v>
       </c>
       <c r="AI28" s="5" t="s">
-        <v>799</v>
+        <v>790</v>
       </c>
       <c r="AJ28" s="5" t="s">
-        <v>827</v>
+        <v>816</v>
       </c>
       <c r="AK28" s="5" t="s">
         <v>88</v>
@@ -34240,115 +34240,115 @@
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H39" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="J39" s="5" t="s">
-        <v>293</v>
+        <v>282</v>
       </c>
       <c r="K39" s="5" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="L39" s="5" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="M39" s="5" t="s">
-        <v>336</v>
+        <v>325</v>
       </c>
       <c r="N39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O39" s="5" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="P39" s="5" t="s">
-        <v>399</v>
+        <v>388</v>
       </c>
       <c r="Q39" s="5" t="s">
-        <v>427</v>
+        <v>416</v>
       </c>
       <c r="R39" s="5" t="s">
-        <v>455</v>
+        <v>444</v>
       </c>
       <c r="S39" s="5" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="T39" s="5" t="s">
-        <v>509</v>
+        <v>498</v>
       </c>
       <c r="U39" s="5" t="s">
-        <v>537</v>
+        <v>526</v>
       </c>
       <c r="V39" s="5" t="s">
-        <v>565</v>
+        <v>554</v>
       </c>
       <c r="W39" s="5" t="s">
-        <v>577</v>
+        <v>569</v>
       </c>
       <c r="X39" s="5" t="s">
-        <v>600</v>
+        <v>591</v>
       </c>
       <c r="Y39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AA39" s="5" t="s">
-        <v>622</v>
+        <v>611</v>
       </c>
       <c r="AB39" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC39" s="5" t="s">
-        <v>637</v>
+        <v>628</v>
       </c>
       <c r="AD39" s="5" t="s">
-        <v>665</v>
+        <v>654</v>
       </c>
       <c r="AE39" s="5" t="s">
-        <v>692</v>
+        <v>681</v>
       </c>
       <c r="AF39" s="5" t="s">
-        <v>720</v>
+        <v>709</v>
       </c>
       <c r="AG39" s="5" t="s">
-        <v>748</v>
+        <v>737</v>
       </c>
       <c r="AH39" s="5" t="s">
-        <v>776</v>
+        <v>765</v>
       </c>
       <c r="AI39" s="5" t="s">
-        <v>800</v>
+        <v>791</v>
       </c>
       <c r="AJ39" s="5" t="s">
-        <v>828</v>
+        <v>817</v>
       </c>
       <c r="AK39" s="5" t="s">
-        <v>856</v>
+        <v>845</v>
       </c>
       <c r="AL39" s="5" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
     </row>
     <row r="40">
@@ -34356,115 +34356,115 @@
         <v>85</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="H40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="J40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="K40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="L40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="M40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="N40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="P40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Q40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="R40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="S40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="T40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="U40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="V40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="W40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="X40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Y40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AA40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AB40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AD40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AE40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AF40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AG40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AH40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AI40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AJ40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AK40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AL40" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41">
@@ -34472,115 +34472,115 @@
         <v>86</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>106</v>
+        <v>121</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>106</v>
+        <v>160</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>106</v>
+        <v>185</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="H41" s="5" t="s">
-        <v>106</v>
+        <v>237</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>106</v>
+        <v>266</v>
       </c>
       <c r="J41" s="5" t="s">
-        <v>106</v>
+        <v>282</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>106</v>
+        <v>297</v>
       </c>
       <c r="L41" s="5" t="s">
-        <v>106</v>
+        <v>309</v>
       </c>
       <c r="M41" s="5" t="s">
-        <v>106</v>
+        <v>325</v>
       </c>
       <c r="N41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="O41" s="5" t="s">
-        <v>106</v>
+        <v>359</v>
       </c>
       <c r="P41" s="5" t="s">
-        <v>106</v>
+        <v>388</v>
       </c>
       <c r="Q41" s="5" t="s">
-        <v>106</v>
+        <v>416</v>
       </c>
       <c r="R41" s="5" t="s">
-        <v>106</v>
+        <v>444</v>
       </c>
       <c r="S41" s="5" t="s">
-        <v>106</v>
+        <v>472</v>
       </c>
       <c r="T41" s="5" t="s">
-        <v>106</v>
+        <v>498</v>
       </c>
       <c r="U41" s="5" t="s">
-        <v>106</v>
+        <v>526</v>
       </c>
       <c r="V41" s="5" t="s">
-        <v>106</v>
+        <v>554</v>
       </c>
       <c r="W41" s="5" t="s">
-        <v>106</v>
+        <v>569</v>
       </c>
       <c r="X41" s="5" t="s">
-        <v>106</v>
+        <v>591</v>
       </c>
       <c r="Y41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="Z41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AA41" s="5" t="s">
-        <v>106</v>
+        <v>611</v>
       </c>
       <c r="AB41" s="5" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="AC41" s="5" t="s">
-        <v>106</v>
+        <v>628</v>
       </c>
       <c r="AD41" s="5" t="s">
-        <v>106</v>
+        <v>654</v>
       </c>
       <c r="AE41" s="5" t="s">
-        <v>106</v>
+        <v>681</v>
       </c>
       <c r="AF41" s="5" t="s">
-        <v>106</v>
+        <v>709</v>
       </c>
       <c r="AG41" s="5" t="s">
-        <v>106</v>
+        <v>737</v>
       </c>
       <c r="AH41" s="5" t="s">
-        <v>106</v>
+        <v>765</v>
       </c>
       <c r="AI41" s="5" t="s">
-        <v>106</v>
+        <v>791</v>
       </c>
       <c r="AJ41" s="5" t="s">
-        <v>106</v>
+        <v>817</v>
       </c>
       <c r="AK41" s="5" t="s">
-        <v>106</v>
+        <v>845</v>
       </c>
       <c r="AL41" s="5" t="s">
-        <v>106</v>
+        <v>872</v>
       </c>
     </row>
     <row r="42">
